--- a/Moral Self-Regulation/html/resources/moralRows2.xlsx
+++ b/Moral Self-Regulation/html/resources/moralRows2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jojo\Downloads\Helion Lab\Experiment Files\Moral Self-Regulation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44196B5F-15B6-478C-94E9-B7DADE227905}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F64C3D-99B5-47DF-A88D-4EAB0E2AB62F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F12A8B0F-796A-4175-AABF-49E44C022677}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="13">
   <si>
     <t>rows2</t>
   </si>
   <si>
-    <t>00:004</t>
-  </si>
-  <si>
     <t>004:008</t>
   </si>
   <si>
@@ -49,18 +46,6 @@
   </si>
   <si>
     <t>0016:0020</t>
-  </si>
-  <si>
-    <t>CueType</t>
-  </si>
-  <si>
-    <t>LOOK</t>
-  </si>
-  <si>
-    <t>REGULATE</t>
-  </si>
-  <si>
-    <t>CueInstructions</t>
   </si>
   <si>
     <t xml:space="preserve">In the following conditions, we would like you to take a distanced approach. Treat your decisions as if you were an objective observer, that is, someone who is watching the scene but not directly involved in it. 
@@ -70,6 +55,24 @@
   <si>
     <t xml:space="preserve">In the following conditions, we would like you to take an involved approach. Treat your decisions as if you are part of the situation, that is, as someone who is in charge of and responsible for the results of the decision. 
 For the next few seconds, imagine that you are one of the people in this scene and think of how you would feel and react in this circumstance. </t>
+  </si>
+  <si>
+    <t>000:004</t>
+  </si>
+  <si>
+    <t>CueInstructions1</t>
+  </si>
+  <si>
+    <t>CueInstructions2</t>
+  </si>
+  <si>
+    <t>CueInst</t>
+  </si>
+  <si>
+    <t>DISTANCE</t>
+  </si>
+  <si>
+    <t>IMMERSE</t>
   </si>
 </sst>
 </file>
@@ -425,80 +428,98 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF1A3F59-81FD-4855-A665-C7F9A7AD1383}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="131.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="131.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C1" t="s">
-        <v>9</v>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>10</v>
+    <row r="4" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="2" t="s">
+    <row r="5" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
+      <c r="D5" s="2" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="72" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+    <row r="6" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>7</v>
+      <c r="B6" s="2" t="s">
+        <v>6</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>11</v>
       </c>
     </row>
